--- a/data/Position_Correlations.xlsx
+++ b/data/Position_Correlations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/45d011554260d803/Documents/GitHub/BDFL-Simulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{7E3577B2-4ED5-40D7-8C38-85B900B877A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5F327182-4801-4674-997E-3A674D1EE920}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{7E3577B2-4ED5-40D7-8C38-85B900B877A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2D5DD60E-E046-4321-BA66-ABEF610F249D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{138DB531-C97B-4E72-8433-2814419E6CA5}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="15">
   <si>
     <t>QB</t>
   </si>
@@ -51,6 +51,27 @@
   </si>
   <si>
     <t>QB1</t>
+  </si>
+  <si>
+    <t>OPP_QB1</t>
+  </si>
+  <si>
+    <t>OPP_RB1</t>
+  </si>
+  <si>
+    <t>OPP_RB2</t>
+  </si>
+  <si>
+    <t>OPP_WR1</t>
+  </si>
+  <si>
+    <t>OPP_WR2</t>
+  </si>
+  <si>
+    <t>OPP_WR3</t>
+  </si>
+  <si>
+    <t>OPP_TE1</t>
   </si>
 </sst>
 </file>
@@ -405,7 +426,7 @@
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -433,25 +454,25 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="N1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="O1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -785,7 +806,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>0.21</v>
@@ -832,7 +853,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>-0.01</v>
@@ -879,7 +900,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>-0.08</v>
@@ -926,7 +947,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>0.09</v>
@@ -973,7 +994,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>0.16</v>
@@ -1020,7 +1041,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B14">
         <v>0.12</v>
@@ -1067,7 +1088,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B15">
         <v>0.11</v>
